--- a/data/trans_orig/P1407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77151F20-11E3-4B8D-986B-78127B8C07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AA9478-649B-410C-A5A2-BE04D75D34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABBA10D5-3BC9-44FE-8621-EC59ED68EA48}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5716C19B-5F58-4AD5-A5FF-764C7D760360}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="228">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>5,67%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,13 +118,13 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>93,68%</t>
+    <t>94,33%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,01%</t>
+    <t>97,18%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -139,16 +139,16 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>1,74%</t>
@@ -157,28 +157,28 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,23%</t>
   </si>
   <si>
     <t>98,94%</t>
@@ -193,499 +193,490 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
     <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1142,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A67D98-1CD2-47D3-ACD2-E2D8AFA2F8B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E1946-60D1-4899-8A00-419BD2B30A96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1971,7 +1962,7 @@
         <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1977,13 @@
         <v>754586</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>691</v>
@@ -2001,13 +1992,13 @@
         <v>761919</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -2016,13 +2007,13 @@
         <v>1516505</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2069,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2096,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2111,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2141,13 +2132,13 @@
         <v>4014</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -2156,13 +2147,13 @@
         <v>15684</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2171,13 +2162,13 @@
         <v>19698</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2183,13 @@
         <v>943725</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>988</v>
@@ -2207,13 +2198,13 @@
         <v>1036217</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>1894</v>
@@ -2222,13 +2213,13 @@
         <v>1979942</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2317,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2332,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2338,13 @@
         <v>10293</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2362,13 +2353,13 @@
         <v>71617</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -2377,13 +2368,13 @@
         <v>81910</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2389,13 @@
         <v>3416486</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>3229</v>
@@ -2413,13 +2404,13 @@
         <v>3482299</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>6428</v>
@@ -2428,13 +2419,13 @@
         <v>6898784</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2481,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD14A3E-4D1E-442A-A307-030F57C50280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89AF067-C2A1-49FF-87BC-40309723E8CC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2641,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2656,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2671,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2677,13 @@
         <v>2114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2701,13 +2692,13 @@
         <v>1799</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2716,13 +2707,13 @@
         <v>3913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2728,10 @@
         <v>114432</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -2752,10 +2743,10 @@
         <v>111561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -2767,13 +2758,13 @@
         <v>225993</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2877,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,10 +2886,10 @@
         <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2907,13 +2898,13 @@
         <v>11001</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -2922,13 +2913,13 @@
         <v>17025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2934,13 @@
         <v>552230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -2958,13 +2949,13 @@
         <v>548478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>1074</v>
@@ -2973,13 +2964,13 @@
         <v>1100708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3089,13 @@
         <v>867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3113,13 +3104,13 @@
         <v>14841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3128,13 +3119,13 @@
         <v>15707</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,10 +3140,10 @@
         <v>1021564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -3164,13 +3155,13 @@
         <v>1028072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>1914</v>
@@ -3179,13 +3170,13 @@
         <v>2049637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3304,13 +3295,13 @@
         <v>2780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3319,13 +3310,13 @@
         <v>6970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3334,13 +3325,13 @@
         <v>9750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3346,13 @@
         <v>756772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>730</v>
@@ -3370,13 +3361,13 @@
         <v>778041</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>1423</v>
@@ -3385,13 +3376,13 @@
         <v>1534813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3438,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3465,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3510,13 +3501,13 @@
         <v>4777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3525,13 +3516,13 @@
         <v>24521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3540,13 +3531,13 @@
         <v>29298</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3552,13 @@
         <v>932790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>939</v>
@@ -3576,13 +3567,13 @@
         <v>1019258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>1866</v>
@@ -3591,7 +3582,7 @@
         <v>1952048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>194</v>
@@ -3671,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3686,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3701,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3707,13 @@
         <v>16562</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3731,13 +3722,13 @@
         <v>59131</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -3746,13 +3737,13 @@
         <v>75693</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3758,13 @@
         <v>3377788</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3782,13 +3773,13 @@
         <v>3485411</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>6501</v>
@@ -3797,13 +3788,13 @@
         <v>6863199</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3850,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8924339C-E032-4FD3-A366-F7C0B8C7FD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89CD09-B2C4-4222-9460-5C9C89B34631}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4007,7 +3998,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -4022,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4037,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4061,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4076,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4091,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4127,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4142,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4204,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4228,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4243,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4267,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4282,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4297,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4333,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4348,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4410,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4434,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4449,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4503,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4616,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4640,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4655,7 +4646,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -4694,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4709,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4760,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4831,7 +4822,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4846,7 +4837,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4861,7 +4852,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4885,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4900,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4915,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4951,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4966,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +5028,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5052,7 +5043,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5061,13 +5052,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5091,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5106,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5121,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5157,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5172,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5205,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -5228,7 +5219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AA9478-649B-410C-A5A2-BE04D75D34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA6F9A0-07A4-4D42-BA77-7C1052B32288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5716C19B-5F58-4AD5-A5FF-764C7D760360}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E1C585C-CD71-4E11-86AF-9242F6EB31DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="230">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,594 +94,603 @@
     <t>1,79%</t>
   </si>
   <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -695,9 +704,6 @@
   </si>
   <si>
     <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -1133,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E1946-60D1-4899-8A00-419BD2B30A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35ED83-CA36-43A8-854A-BEC699F10D74}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1944,10 +1950,10 @@
         <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1956,13 +1962,13 @@
         <v>18292</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +2004,7 @@
         <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -2007,10 +2013,10 @@
         <v>1516505</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>85</v>
@@ -2502,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89AF067-C2A1-49FF-87BC-40309723E8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55F13B3-BE6C-446D-B253-40F1D32ED9DA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2683,13 @@
         <v>2114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2692,13 +2698,13 @@
         <v>1799</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2707,13 +2713,13 @@
         <v>3913</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2734,10 @@
         <v>114432</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -2743,10 +2749,10 @@
         <v>111561</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -2758,13 +2764,13 @@
         <v>225993</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2868,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2889,13 @@
         <v>6024</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2898,10 +2904,10 @@
         <v>11001</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>150</v>
@@ -2916,10 +2922,10 @@
         <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2940,13 @@
         <v>552230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -2949,13 +2955,13 @@
         <v>548478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>1074</v>
@@ -2964,13 +2970,13 @@
         <v>1100708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3095,13 @@
         <v>867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3104,13 +3110,13 @@
         <v>14841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3119,13 +3125,13 @@
         <v>15707</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,10 +3146,10 @@
         <v>1021564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -3155,13 +3161,13 @@
         <v>1028072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1914</v>
@@ -3176,7 +3182,7 @@
         <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3295,13 +3301,13 @@
         <v>2780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3310,10 +3316,10 @@
         <v>6970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>176</v>
@@ -3349,7 +3355,7 @@
         <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>100</v>
@@ -3361,13 +3367,13 @@
         <v>778041</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>1423</v>
@@ -3376,13 +3382,13 @@
         <v>1534813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>4777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3516,13 +3522,13 @@
         <v>24521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3531,13 +3537,13 @@
         <v>29298</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3558,13 @@
         <v>932790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>939</v>
@@ -3567,13 +3573,13 @@
         <v>1019258</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>1866</v>
@@ -3582,13 +3588,13 @@
         <v>1952048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,10 +3716,10 @@
         <v>51</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3722,13 +3728,13 @@
         <v>59131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -3737,13 +3743,13 @@
         <v>75693</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,10 +3767,10 @@
         <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3773,13 +3779,13 @@
         <v>3485411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>6501</v>
@@ -3788,13 +3794,13 @@
         <v>6863199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89CD09-B2C4-4222-9460-5C9C89B34631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B41F0C-D4D2-4498-B351-7CC399116997}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,7 +3894,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3998,7 +4004,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -4013,7 +4019,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4028,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4052,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4067,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4082,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4118,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4133,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4219,7 +4225,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4234,7 +4240,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4258,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4288,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4339,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4440,7 +4446,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4494,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4622,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4631,7 +4637,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4685,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4736,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4822,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4837,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4852,7 +4858,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4891,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4906,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4957,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5034,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5043,7 +5049,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5058,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5097,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5112,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5163,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1407-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B823FBC-E0C6-4ADF-8D9F-0002940D3EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{760A98FA-581D-4417-92CC-A2424DC8F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FE9D792-0D00-42CF-8A64-618D1A4FD2B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A8E8EA7B-9F65-4F03-98B1-8121AE8D0B41}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="164">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,108 +66,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -219,7 +183,7 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -234,9 +198,6 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>3,17%</t>
   </si>
   <si>
@@ -264,9 +225,6 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
     <t>98,81%</t>
   </si>
   <si>
@@ -375,82 +333,40 @@
     <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -549,9 +465,6 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -574,9 +487,6 @@
   </si>
   <si>
     <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -1030,8 +940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1583B11-E7F1-4976-8EF8-521B72DB684D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0436D970-7A2C-4BDE-B6EC-648D98B03AB3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1148,10 +1058,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2259</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1163,85 +1073,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>2006</v>
+        <v>20193</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>2006</v>
+        <v>22453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>701210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>632</v>
       </c>
       <c r="I5" s="7">
-        <v>109899</v>
+        <v>676857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1304</v>
       </c>
       <c r="N5" s="7">
-        <v>225664</v>
+        <v>1378066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1160,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2259</v>
+        <v>982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>18188</v>
+        <v>20485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>20447</v>
+        <v>21467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>550</v>
+        <v>935</v>
       </c>
       <c r="D8" s="7">
-        <v>585445</v>
+        <v>1016965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>535</v>
+        <v>918</v>
       </c>
       <c r="I8" s="7">
-        <v>566957</v>
+        <v>1007306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1085</v>
+        <v>1853</v>
       </c>
       <c r="N8" s="7">
-        <v>1152402</v>
+        <v>2024271</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,153 +1315,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>982</v>
+        <v>3037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>20485</v>
+        <v>15255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>21467</v>
+        <v>18292</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>935</v>
+        <v>686</v>
       </c>
       <c r="D11" s="7">
-        <v>1016965</v>
+        <v>754586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>918</v>
+        <v>691</v>
       </c>
       <c r="I11" s="7">
-        <v>1007306</v>
+        <v>761919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1853</v>
+        <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>2024271</v>
+        <v>1516505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,153 +1470,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3037</v>
+        <v>4014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>15255</v>
+        <v>15684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>18292</v>
+        <v>19698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>686</v>
+        <v>906</v>
       </c>
       <c r="D14" s="7">
-        <v>754586</v>
+        <v>943725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>691</v>
+        <v>988</v>
       </c>
       <c r="I14" s="7">
-        <v>761919</v>
+        <v>1036217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>1377</v>
+        <v>1894</v>
       </c>
       <c r="N14" s="7">
-        <v>1516505</v>
+        <v>1979942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,129 +1625,129 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>4014</v>
+        <v>10293</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>15684</v>
+        <v>71617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>19698</v>
+        <v>81910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>906</v>
+        <v>3199</v>
       </c>
       <c r="D17" s="7">
-        <v>943725</v>
+        <v>3416486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>988</v>
+        <v>3229</v>
       </c>
       <c r="I17" s="7">
-        <v>1036217</v>
+        <v>3482299</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>92</v>
@@ -1849,19 +1759,19 @@
         <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1894</v>
+        <v>6428</v>
       </c>
       <c r="N17" s="7">
-        <v>1979942</v>
+        <v>6898784</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,217 +1780,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10293</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="7">
-        <v>66</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71617</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="7">
-        <v>76</v>
-      </c>
-      <c r="N19" s="7">
-        <v>81910</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3199</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3416486</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3229</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3482299</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6428</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6898784</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2093,8 +1847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A9AE1-D904-4C65-BA84-A0076614BE5D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6496B9-7D89-426E-8612-A6B3FFC993C5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2110,7 +1864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2211,100 +1965,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>2114</v>
+        <v>8138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>1799</v>
+        <v>12799</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>3913</v>
+        <v>20938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>644</v>
       </c>
       <c r="D5" s="7">
-        <v>114432</v>
+        <v>666662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
-        <v>113</v>
+        <v>654</v>
       </c>
       <c r="I5" s="7">
-        <v>111561</v>
+        <v>660040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1298</v>
       </c>
       <c r="N5" s="7">
-        <v>225993</v>
+        <v>1326701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,153 +2067,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>6024</v>
+        <v>867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>11001</v>
+        <v>14841</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>17025</v>
+        <v>15707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>950</v>
       </c>
       <c r="D8" s="7">
-        <v>552230</v>
+        <v>1021564</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>541</v>
+        <v>964</v>
       </c>
       <c r="I8" s="7">
-        <v>548478</v>
+        <v>1028072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
-        <v>1074</v>
+        <v>1914</v>
       </c>
       <c r="N8" s="7">
-        <v>1100708</v>
+        <v>2049637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,153 +2222,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>867</v>
+        <v>2780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>14841</v>
+        <v>6970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>15707</v>
+        <v>9750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>950</v>
+        <v>693</v>
       </c>
       <c r="D11" s="7">
-        <v>1021564</v>
+        <v>756772</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
-        <v>964</v>
+        <v>730</v>
       </c>
       <c r="I11" s="7">
-        <v>1028072</v>
+        <v>778041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>1914</v>
+        <v>1423</v>
       </c>
       <c r="N11" s="7">
-        <v>2049637</v>
+        <v>1534813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,153 +2377,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2780</v>
+        <v>4777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>6970</v>
+        <v>24521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>9750</v>
+        <v>29298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>693</v>
+        <v>927</v>
       </c>
       <c r="D14" s="7">
-        <v>756772</v>
+        <v>932790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
-        <v>730</v>
+        <v>939</v>
       </c>
       <c r="I14" s="7">
-        <v>778041</v>
+        <v>1019258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>1423</v>
+        <v>1866</v>
       </c>
       <c r="N14" s="7">
-        <v>1534813</v>
+        <v>1952048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,153 +2532,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>4777</v>
+        <v>16562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>24521</v>
+        <v>59131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>29298</v>
+        <v>75693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>927</v>
+        <v>3214</v>
       </c>
       <c r="D17" s="7">
-        <v>932790</v>
+        <v>3377788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
-        <v>939</v>
+        <v>3287</v>
       </c>
       <c r="I17" s="7">
-        <v>1019258</v>
+        <v>3485411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
-        <v>1866</v>
+        <v>6501</v>
       </c>
       <c r="N17" s="7">
-        <v>1952048</v>
+        <v>6863199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,217 +2687,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16562</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>59131</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="7">
-        <v>68</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75693</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3377788</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3485411</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6501</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6863199</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
